--- a/product_upload/tests/products_3.xlsx
+++ b/product_upload/tests/products_3.xlsx
@@ -190,17 +190,17 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.9183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="52.2397959183674"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -254,7 +254,9 @@
       <c r="F2" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="n">
+        <v>0.21</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
